--- a/Output/R1_201912/Country/HKD/MN/CHINA_201912_HKD_MN.xlsx
+++ b/Output/R1_201912/Country/HKD/MN/CHINA_201912_HKD_MN.xlsx
@@ -507,6 +507,9 @@
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D6" s="8" t="n">
         <v>1943468.899336</v>
       </c>
@@ -538,6 +541,9 @@
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D7" s="8" t="n">
         <v>18563.286172</v>
       </c>
@@ -569,6 +575,9 @@
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D8" s="8" t="n">
         <v>1924905.613164</v>
       </c>
@@ -600,6 +609,9 @@
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D9" s="8" t="n">
         <v>1916830.863076</v>
       </c>
@@ -631,6 +643,9 @@
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" s="8" t="n">
         <v>2085504.142319</v>
       </c>
@@ -662,6 +677,9 @@
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="D11" s="8" t="n">
         <v>3860299.762412</v>
       </c>
@@ -815,19 +833,19 @@
         <v>40.74336469736857</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>559282.841841</v>
+        <v>996393.516344</v>
       </c>
       <c r="H18" s="9" t="n">
-        <v>43.93608346034638</v>
+        <v>43.56193971413916</v>
       </c>
       <c r="I18" s="8" t="n">
-        <v>996393.516344</v>
+        <v>999867.083803</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>43.56193971413916</v>
+        <v>45.22538046361716</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>-100</v>
+        <v>0.3486140166533147</v>
       </c>
     </row>
     <row r="19">
@@ -854,19 +872,19 @@
         <v>14.39106567077232</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>137914.002731</v>
+        <v>275389.626789</v>
       </c>
       <c r="H19" s="9" t="n">
-        <v>10.83423391712471</v>
+        <v>12.03992812408061</v>
       </c>
       <c r="I19" s="8" t="n">
-        <v>275389.626789</v>
+        <v>255815.573245</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>12.03992812408061</v>
+        <v>11.57089458782795</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>-100</v>
+        <v>-7.107767192334147</v>
       </c>
     </row>
     <row r="20">
@@ -893,19 +911,19 @@
         <v>5.965419702368103</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>75319.136633</v>
+        <v>135075.17579</v>
       </c>
       <c r="H20" s="9" t="n">
-        <v>5.916912920796361</v>
+        <v>5.905434517710431</v>
       </c>
       <c r="I20" s="8" t="n">
-        <v>135075.17579</v>
+        <v>120081.587052</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>5.905434517710431</v>
+        <v>5.431457389762079</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>-100</v>
+        <v>-11.1001808069533</v>
       </c>
     </row>
     <row r="21">
@@ -932,97 +950,97 @@
         <v>5.128358889325566</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>61372.115049</v>
+        <v>111927.647493</v>
       </c>
       <c r="H21" s="9" t="n">
-        <v>4.821264246288867</v>
+        <v>4.893433520448706</v>
       </c>
       <c r="I21" s="8" t="n">
-        <v>111927.647493</v>
+        <v>98136.52211599999</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>4.893433520448706</v>
+        <v>4.438851545338734</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>-100</v>
+        <v>-12.32146452275118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>55836.122811</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.873013446733149</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>61857.46745</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.937440736093276</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>71752.855895</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.137007147822683</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>69578.86982000001</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.14714916693665</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-3.029825151742138</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
           <t>778</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
         </is>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C23" s="8" t="n">
         <v>51753.215258</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D23" s="9" t="n">
         <v>2.662929943241276</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E23" s="8" t="n">
         <v>56302.658476</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F23" s="9" t="n">
         <v>2.673658159242175</v>
       </c>
-      <c r="G22" s="8" t="n">
-        <v>39180.814853</v>
-      </c>
-      <c r="H22" s="9" t="n">
-        <v>3.07796238797396</v>
-      </c>
-      <c r="I22" s="8" t="n">
+      <c r="G23" s="8" t="n">
         <v>73472.358437</v>
       </c>
-      <c r="J22" s="9" t="n">
+      <c r="H23" s="9" t="n">
         <v>3.212183134864184</v>
       </c>
-      <c r="K22" s="9" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>752</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="n">
-        <v>55836.122811</v>
-      </c>
-      <c r="D23" s="9" t="n">
-        <v>2.873013446733149</v>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>61857.46745</v>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>2.937440736093276</v>
-      </c>
-      <c r="G23" s="8" t="n">
-        <v>38765.199241</v>
-      </c>
-      <c r="H23" s="9" t="n">
-        <v>3.045312499849114</v>
-      </c>
       <c r="I23" s="8" t="n">
-        <v>71752.855895</v>
+        <v>65276.89424</v>
       </c>
       <c r="J23" s="9" t="n">
-        <v>3.137007147822683</v>
+        <v>2.952564821174726</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>-100</v>
+        <v>-11.15448635560995</v>
       </c>
     </row>
     <row r="24">
@@ -1049,19 +1067,19 @@
         <v>1.870094148946837</v>
       </c>
       <c r="G24" s="8" t="n">
-        <v>23240.176183</v>
+        <v>40323.346052</v>
       </c>
       <c r="H24" s="9" t="n">
-        <v>1.825699349274384</v>
+        <v>1.762921115981199</v>
       </c>
       <c r="I24" s="8" t="n">
-        <v>40323.346052</v>
+        <v>36829.909941</v>
       </c>
       <c r="J24" s="9" t="n">
-        <v>1.762921115981199</v>
+        <v>1.665868110376416</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>-100</v>
+        <v>-8.663557102862818</v>
       </c>
     </row>
     <row r="25">
@@ -1088,97 +1106,97 @@
         <v>1.4402327750923</v>
       </c>
       <c r="G25" s="8" t="n">
-        <v>19586.958342</v>
+        <v>34444.852598</v>
       </c>
       <c r="H25" s="9" t="n">
-        <v>1.538710241164693</v>
+        <v>1.50591565252463</v>
       </c>
       <c r="I25" s="8" t="n">
-        <v>34444.852598</v>
+        <v>32742.557081</v>
       </c>
       <c r="J25" s="9" t="n">
-        <v>1.50591565252463</v>
+        <v>1.48099144909113</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>-100</v>
+        <v>-4.942089713279374</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+          <t>OFFICE MACHINES</t>
         </is>
       </c>
       <c r="C26" s="8" t="n">
-        <v>26979.561352</v>
+        <v>36349.704691</v>
       </c>
       <c r="D26" s="9" t="n">
-        <v>1.388216778833855</v>
+        <v>1.870351756254969</v>
       </c>
       <c r="E26" s="8" t="n">
-        <v>30410.076364</v>
+        <v>33262.604617</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>1.444090758670737</v>
+        <v>1.579549467807061</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>19034.862806</v>
+        <v>32780.377206</v>
       </c>
       <c r="H26" s="9" t="n">
-        <v>1.495338777330877</v>
+        <v>1.433145431228912</v>
       </c>
       <c r="I26" s="8" t="n">
-        <v>32880.917143</v>
+        <v>28191.489285</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>1.437540998444691</v>
+        <v>1.275140315551496</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>-100</v>
+        <v>-13.99888687113724</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>OFFICE MACHINES</t>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
         </is>
       </c>
       <c r="C27" s="8" t="n">
-        <v>36349.704691</v>
+        <v>10572.794619</v>
       </c>
       <c r="D27" s="9" t="n">
-        <v>1.870351756254969</v>
+        <v>0.5440166612705905</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>33262.604617</v>
+        <v>11720.747617</v>
       </c>
       <c r="F27" s="9" t="n">
-        <v>1.579549467807061</v>
+        <v>0.5565860182600152</v>
       </c>
       <c r="G27" s="8" t="n">
-        <v>19127.122037</v>
+        <v>12168.027131</v>
       </c>
       <c r="H27" s="9" t="n">
-        <v>1.502586468427318</v>
+        <v>0.5319814467134991</v>
       </c>
       <c r="I27" s="8" t="n">
-        <v>32780.377206</v>
+        <v>27898.678334</v>
       </c>
       <c r="J27" s="9" t="n">
-        <v>1.433145431228912</v>
+        <v>1.261896068513659</v>
       </c>
       <c r="K27" s="9" t="n">
-        <v>-100</v>
+        <v>129.2785677879008</v>
       </c>
     </row>
     <row r="28">
@@ -1193,31 +1211,31 @@
         </is>
       </c>
       <c r="C28" s="8" t="n">
-        <v>428860.012541</v>
+        <v>445266.779274</v>
       </c>
       <c r="D28" s="9" t="n">
-        <v>22.06672886237197</v>
+        <v>22.91092897993524</v>
       </c>
       <c r="E28" s="8" t="n">
-        <v>459633.419761</v>
+        <v>478322.748508</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>21.82672499431306</v>
+        <v>22.71422973472378</v>
       </c>
       <c r="G28" s="8" t="n">
-        <v>280123.282109</v>
+        <v>503575.129961</v>
       </c>
       <c r="H28" s="9" t="n">
-        <v>22.00589573142334</v>
+        <v>22.01611019448598</v>
       </c>
       <c r="I28" s="8" t="n">
-        <v>482862.239949</v>
+        <v>476434.726312</v>
       </c>
       <c r="J28" s="9" t="n">
-        <v>21.11055064275479</v>
+        <v>21.54980608181</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>-100</v>
+        <v>-5.389544088704678</v>
       </c>
     </row>
     <row r="29">
@@ -1273,19 +1291,19 @@
         <v>16.21414754293081</v>
       </c>
       <c r="G31" s="8" t="n">
-        <v>1858.454835</v>
+        <v>3160.084815</v>
       </c>
       <c r="H31" s="9" t="n">
-        <v>17.10968251230797</v>
+        <v>15.43359736513883</v>
       </c>
       <c r="I31" s="8" t="n">
-        <v>3160.084815</v>
+        <v>3252.148196</v>
       </c>
       <c r="J31" s="9" t="n">
-        <v>15.43359736513883</v>
+        <v>15.73966528781224</v>
       </c>
       <c r="K31" s="9" t="n">
-        <v>-100</v>
+        <v>2.913319938851067</v>
       </c>
     </row>
     <row r="32">
@@ -1312,19 +1330,19 @@
         <v>12.63610702250431</v>
       </c>
       <c r="G32" s="8" t="n">
-        <v>1588.37542</v>
+        <v>2794.829621</v>
       </c>
       <c r="H32" s="9" t="n">
-        <v>14.62322281647153</v>
+        <v>13.64972068785361</v>
       </c>
       <c r="I32" s="8" t="n">
-        <v>2794.829621</v>
+        <v>2504.555584</v>
       </c>
       <c r="J32" s="9" t="n">
-        <v>13.64972068785361</v>
+        <v>12.12148531096063</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>-100</v>
+        <v>-10.38610850618289</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1369,19 @@
         <v>0.779475819290401</v>
       </c>
       <c r="G33" s="8" t="n">
-        <v>393.847093</v>
+        <v>1369.064752</v>
       </c>
       <c r="H33" s="9" t="n">
-        <v>3.625914707593866</v>
+        <v>6.686400962681642</v>
       </c>
       <c r="I33" s="8" t="n">
-        <v>1369.064752</v>
+        <v>2212.15448</v>
       </c>
       <c r="J33" s="9" t="n">
-        <v>6.686400962681642</v>
+        <v>10.70632978010032</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>-100</v>
+        <v>61.5814355579874</v>
       </c>
     </row>
     <row r="34">
@@ -1390,97 +1408,97 @@
         <v>6.092300025515359</v>
       </c>
       <c r="G34" s="8" t="n">
-        <v>270.061412</v>
+        <v>1352.471156</v>
       </c>
       <c r="H34" s="9" t="n">
-        <v>2.486293952979277</v>
+        <v>6.605359188648189</v>
       </c>
       <c r="I34" s="8" t="n">
-        <v>1352.471156</v>
+        <v>1598.845937</v>
       </c>
       <c r="J34" s="9" t="n">
-        <v>6.605359188648189</v>
+        <v>7.738054473074368</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>-100</v>
+        <v>18.21663847742716</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>PULP AND WASTE PAPER</t>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
         </is>
       </c>
       <c r="C35" s="8" t="n">
-        <v>1084.132737</v>
+        <v>544.454566</v>
       </c>
       <c r="D35" s="9" t="n">
-        <v>5.84019837304052</v>
+        <v>2.932964352083469</v>
       </c>
       <c r="E35" s="8" t="n">
-        <v>1215.929073</v>
+        <v>556.235261</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>7.04149447012173</v>
+        <v>3.221180907168109</v>
       </c>
       <c r="G35" s="8" t="n">
-        <v>651.040509</v>
+        <v>691.119815</v>
       </c>
       <c r="H35" s="9" t="n">
-        <v>5.993740715060952</v>
+        <v>3.375372997948864</v>
       </c>
       <c r="I35" s="8" t="n">
-        <v>1240.539036</v>
+        <v>778.18673</v>
       </c>
       <c r="J35" s="9" t="n">
-        <v>6.058691813106117</v>
+        <v>3.766248621966893</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>-100</v>
+        <v>12.59794801282032</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>892</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+          <t>PRINTED MATTER</t>
         </is>
       </c>
       <c r="C36" s="8" t="n">
-        <v>544.454566</v>
+        <v>501.840347</v>
       </c>
       <c r="D36" s="9" t="n">
-        <v>2.932964352083469</v>
+        <v>2.703402524478412</v>
       </c>
       <c r="E36" s="8" t="n">
-        <v>556.235261</v>
+        <v>446.937121</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>3.221180907168109</v>
+        <v>2.58823095515673</v>
       </c>
       <c r="G36" s="8" t="n">
-        <v>415.742703</v>
+        <v>497.550556</v>
       </c>
       <c r="H36" s="9" t="n">
-        <v>3.827494497674327</v>
+        <v>2.429996471504502</v>
       </c>
       <c r="I36" s="8" t="n">
-        <v>691.119815</v>
+        <v>770.7653800000001</v>
       </c>
       <c r="J36" s="9" t="n">
-        <v>3.375372997948864</v>
+        <v>3.730330958335397</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>-100</v>
+        <v>54.91197240265973</v>
       </c>
     </row>
     <row r="37">
@@ -1507,136 +1525,136 @@
         <v>2.941182583201776</v>
       </c>
       <c r="G37" s="8" t="n">
-        <v>356.610393</v>
+        <v>624.533003</v>
       </c>
       <c r="H37" s="9" t="n">
-        <v>3.283098674184016</v>
+        <v>3.050168420730517</v>
       </c>
       <c r="I37" s="8" t="n">
-        <v>624.533003</v>
+        <v>717.677357</v>
       </c>
       <c r="J37" s="9" t="n">
-        <v>3.050168420730517</v>
+        <v>3.473396875860492</v>
       </c>
       <c r="K37" s="9" t="n">
-        <v>-100</v>
+        <v>14.91424048890495</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PULP AND WASTE PAPER</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>1084.132737</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>5.84019837304052</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>1215.929073</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>7.04149447012173</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1240.539036</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>6.058691813106117</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>657.8901519999999</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>3.184040260331335</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-46.96739619566473</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="11" t="inlineStr">
+        <is>
           <t>551</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
         </is>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C39" s="8" t="n">
         <v>507.223099</v>
       </c>
-      <c r="D38" s="9" t="n">
+      <c r="D39" s="9" t="n">
         <v>2.73239928695961</v>
       </c>
-      <c r="E38" s="8" t="n">
+      <c r="E39" s="8" t="n">
         <v>489.788707</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F39" s="9" t="n">
         <v>2.83638622387687</v>
       </c>
-      <c r="G38" s="8" t="n">
-        <v>328.193074</v>
-      </c>
-      <c r="H38" s="9" t="n">
-        <v>3.021477408612084</v>
-      </c>
-      <c r="I38" s="8" t="n">
+      <c r="G39" s="8" t="n">
         <v>565.158563</v>
       </c>
-      <c r="J38" s="9" t="n">
+      <c r="H39" s="9" t="n">
         <v>2.760188482093777</v>
       </c>
-      <c r="K38" s="9" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>885</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>WATCHES AND CLOCKS</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="n">
-        <v>93.412993</v>
-      </c>
-      <c r="D39" s="9" t="n">
-        <v>0.5032136666669494</v>
-      </c>
-      <c r="E39" s="8" t="n">
-        <v>136.357818</v>
-      </c>
-      <c r="F39" s="9" t="n">
-        <v>0.7896536424085202</v>
-      </c>
-      <c r="G39" s="8" t="n">
-        <v>365.664986</v>
-      </c>
-      <c r="H39" s="9" t="n">
-        <v>3.366458898274781</v>
-      </c>
       <c r="I39" s="8" t="n">
-        <v>559.407873</v>
+        <v>560.342721</v>
       </c>
       <c r="J39" s="9" t="n">
-        <v>2.732102579585578</v>
+        <v>2.711932649886524</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>-100</v>
+        <v>-0.8521222742227108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>897</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
         </is>
       </c>
       <c r="C40" s="8" t="n">
-        <v>104.912059</v>
+        <v>204.408568</v>
       </c>
       <c r="D40" s="9" t="n">
-        <v>0.5651588734232007</v>
+        <v>1.101144302285877</v>
       </c>
       <c r="E40" s="8" t="n">
-        <v>219.927112</v>
+        <v>239.260585</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>1.273606805993233</v>
+        <v>1.385567730557579</v>
       </c>
       <c r="G40" s="8" t="n">
-        <v>247.125176</v>
+        <v>298.802635</v>
       </c>
       <c r="H40" s="9" t="n">
-        <v>2.275133741497802</v>
+        <v>1.459327780805952</v>
       </c>
       <c r="I40" s="8" t="n">
-        <v>538.478056</v>
+        <v>541.279487</v>
       </c>
       <c r="J40" s="9" t="n">
-        <v>2.6298830546631</v>
+        <v>2.619670888004858</v>
       </c>
       <c r="K40" s="9" t="n">
-        <v>-100</v>
+        <v>81.14950258052443</v>
       </c>
     </row>
     <row r="41">
@@ -1651,31 +1669,31 @@
         </is>
       </c>
       <c r="C41" s="8" t="n">
-        <v>10443.129234</v>
+        <v>9935.205371</v>
       </c>
       <c r="D41" s="9" t="n">
-        <v>56.25689943708314</v>
+        <v>53.520725150409</v>
       </c>
       <c r="E41" s="8" t="n">
-        <v>7973.431579</v>
+        <v>7643.518803</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>46.17446495698888</v>
+        <v>44.26392671967633</v>
       </c>
       <c r="G41" s="8" t="n">
-        <v>4386.890948</v>
+        <v>7881.207302</v>
       </c>
       <c r="H41" s="9" t="n">
-        <v>40.38748207534339</v>
+        <v>38.49117582948801</v>
       </c>
       <c r="I41" s="8" t="n">
-        <v>7579.674564</v>
+        <v>7068.271858</v>
       </c>
       <c r="J41" s="9" t="n">
-        <v>37.01851444754978</v>
+        <v>34.20884489366694</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>-100</v>
+        <v>-10.31485929565262</v>
       </c>
     </row>
     <row r="42">
@@ -1731,19 +1749,19 @@
         <v>41.04977509251457</v>
       </c>
       <c r="G44" s="8" t="n">
-        <v>559107.7236500001</v>
+        <v>996094.005217</v>
       </c>
       <c r="H44" s="9" t="n">
-        <v>44.30033974054147</v>
+        <v>43.94220478500587</v>
       </c>
       <c r="I44" s="8" t="n">
-        <v>996094.005217</v>
+        <v>999477.695067</v>
       </c>
       <c r="J44" s="9" t="n">
-        <v>43.94220478500587</v>
+        <v>45.63425482781453</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>-100</v>
+        <v>0.3396958351599366</v>
       </c>
     </row>
     <row r="45">
@@ -1770,19 +1788,19 @@
         <v>14.49867825193723</v>
       </c>
       <c r="G45" s="8" t="n">
-        <v>137840.637649</v>
+        <v>275288.735531</v>
       </c>
       <c r="H45" s="9" t="n">
-        <v>10.92166468035801</v>
+        <v>12.14422928795082</v>
       </c>
       <c r="I45" s="8" t="n">
-        <v>275288.735531</v>
+        <v>255762.61004</v>
       </c>
       <c r="J45" s="9" t="n">
-        <v>12.14422928795082</v>
+        <v>11.67763540857199</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>-100</v>
+        <v>-7.092962032513384</v>
       </c>
     </row>
     <row r="46">
@@ -1809,19 +1827,19 @@
         <v>6.01078504894963</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>75286.692647</v>
+        <v>134948.645824</v>
       </c>
       <c r="H46" s="9" t="n">
-        <v>5.965265585012144</v>
+        <v>5.953194175649709</v>
       </c>
       <c r="I46" s="8" t="n">
-        <v>134948.645824</v>
+        <v>119940.729331</v>
       </c>
       <c r="J46" s="9" t="n">
-        <v>5.953194175649709</v>
+        <v>5.476266087316609</v>
       </c>
       <c r="K46" s="9" t="n">
-        <v>-100</v>
+        <v>-11.12120570114747</v>
       </c>
     </row>
     <row r="47">
@@ -1848,97 +1866,97 @@
         <v>5.163158964857749</v>
       </c>
       <c r="G47" s="8" t="n">
-        <v>61305.341516</v>
+        <v>111818.964193</v>
       </c>
       <c r="H47" s="9" t="n">
-        <v>4.857467250387754</v>
+        <v>4.932839468645953</v>
       </c>
       <c r="I47" s="8" t="n">
-        <v>111818.964193</v>
+        <v>98088.514029</v>
       </c>
       <c r="J47" s="9" t="n">
-        <v>4.932839468645953</v>
+        <v>4.478535406016223</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>-100</v>
+        <v>-12.27917845876411</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>55817.295501</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.89974194678835</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>61854.297109</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.961575469087354</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>71725.19821</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.16412239355094</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>69570.646857</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.176463709873394</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-3.003897384419651</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="11" t="inlineStr">
+        <is>
           <t>778</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
         </is>
       </c>
-      <c r="C48" s="8" t="n">
+      <c r="C49" s="8" t="n">
         <v>51673.102737</v>
       </c>
-      <c r="D48" s="9" t="n">
+      <c r="D49" s="9" t="n">
         <v>2.684448649513991</v>
       </c>
-      <c r="E48" s="8" t="n">
+      <c r="E49" s="8" t="n">
         <v>56240.583183</v>
       </c>
-      <c r="F48" s="9" t="n">
+      <c r="F49" s="9" t="n">
         <v>2.692791597460485</v>
       </c>
-      <c r="G48" s="8" t="n">
-        <v>39158.589659</v>
-      </c>
-      <c r="H48" s="9" t="n">
-        <v>3.102691578519663</v>
-      </c>
-      <c r="I48" s="8" t="n">
+      <c r="G49" s="8" t="n">
         <v>73434.426802</v>
       </c>
-      <c r="J48" s="9" t="n">
+      <c r="H49" s="9" t="n">
         <v>3.239524185370467</v>
       </c>
-      <c r="K48" s="9" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>752</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
-        </is>
-      </c>
-      <c r="C49" s="8" t="n">
-        <v>55817.295501</v>
-      </c>
-      <c r="D49" s="9" t="n">
-        <v>2.89974194678835</v>
-      </c>
-      <c r="E49" s="8" t="n">
-        <v>61854.297109</v>
-      </c>
-      <c r="F49" s="9" t="n">
-        <v>2.961575469087354</v>
-      </c>
-      <c r="G49" s="8" t="n">
-        <v>38764.342473</v>
-      </c>
-      <c r="H49" s="9" t="n">
-        <v>3.071453798137137</v>
-      </c>
       <c r="I49" s="8" t="n">
-        <v>71725.19821</v>
+        <v>65254.367396</v>
       </c>
       <c r="J49" s="9" t="n">
-        <v>3.16412239355094</v>
+        <v>2.979390580774568</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>-100</v>
+        <v>-11.13927045152235</v>
       </c>
     </row>
     <row r="50">
@@ -1965,19 +1983,19 @@
         <v>1.884232985524007</v>
       </c>
       <c r="G50" s="8" t="n">
-        <v>23228.133964</v>
+        <v>40303.384485</v>
       </c>
       <c r="H50" s="9" t="n">
-        <v>1.840457898571565</v>
+        <v>1.777964293824738</v>
       </c>
       <c r="I50" s="8" t="n">
-        <v>40303.384485</v>
+        <v>36794.401081</v>
       </c>
       <c r="J50" s="9" t="n">
-        <v>1.777964293824738</v>
+        <v>1.679962527882737</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>-100</v>
+        <v>-8.706423663516304</v>
       </c>
     </row>
     <row r="51">
@@ -2004,58 +2022,58 @@
         <v>1.44402120263835</v>
       </c>
       <c r="G51" s="8" t="n">
-        <v>19448.595103</v>
+        <v>34216.473414</v>
       </c>
       <c r="H51" s="9" t="n">
-        <v>1.540989927512569</v>
+        <v>1.509443158882527</v>
       </c>
       <c r="I51" s="8" t="n">
-        <v>34216.473414</v>
+        <v>32534.206775</v>
       </c>
       <c r="J51" s="9" t="n">
-        <v>1.509443158882527</v>
+        <v>1.485450140527283</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>-100</v>
+        <v>-4.916540108168144</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>714</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
         </is>
       </c>
       <c r="C52" s="8" t="n">
-        <v>26959.90357</v>
+        <v>10572.794619</v>
       </c>
       <c r="D52" s="9" t="n">
-        <v>1.400583144733291</v>
+        <v>0.5492630156354169</v>
       </c>
       <c r="E52" s="8" t="n">
-        <v>30406.444276</v>
+        <v>11720.747617</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>1.455856483362584</v>
+        <v>0.5611878275926697</v>
       </c>
       <c r="G52" s="8" t="n">
-        <v>19025.891742</v>
+        <v>12168.027131</v>
       </c>
       <c r="H52" s="9" t="n">
-        <v>1.507497450643315</v>
+        <v>0.5367866257797895</v>
       </c>
       <c r="I52" s="8" t="n">
-        <v>32865.316798</v>
+        <v>27898.678334</v>
       </c>
       <c r="J52" s="9" t="n">
-        <v>1.449837538925048</v>
+        <v>1.273800708846874</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>-100</v>
+        <v>129.2785677879008</v>
       </c>
     </row>
     <row r="53">
@@ -2082,19 +2100,19 @@
         <v>1.589052140336129</v>
       </c>
       <c r="G53" s="8" t="n">
-        <v>19050.811308</v>
+        <v>32627.562059</v>
       </c>
       <c r="H53" s="9" t="n">
-        <v>1.509471927462881</v>
+        <v>1.43934910372212</v>
       </c>
       <c r="I53" s="8" t="n">
-        <v>32627.562059</v>
+        <v>27845.140321</v>
       </c>
       <c r="J53" s="9" t="n">
-        <v>1.43934910372212</v>
+        <v>1.271356264773459</v>
       </c>
       <c r="K53" s="9" t="n">
-        <v>-100</v>
+        <v>-14.65761287757881</v>
       </c>
     </row>
     <row r="54">
@@ -2109,31 +2127,31 @@
         </is>
       </c>
       <c r="C54" s="8" t="n">
-        <v>412394.31124</v>
+        <v>428781.420191</v>
       </c>
       <c r="D54" s="9" t="n">
-        <v>21.4241315740225</v>
+        <v>22.27545170312038</v>
       </c>
       <c r="E54" s="8" t="n">
-        <v>443820.638039</v>
+        <v>462506.334698</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>21.2500727633319</v>
+        <v>22.14474141910182</v>
       </c>
       <c r="G54" s="8" t="n">
-        <v>269867.745565</v>
+        <v>484202.129576</v>
       </c>
       <c r="H54" s="9" t="n">
-        <v>21.3827001628535</v>
+        <v>21.36034252161707</v>
       </c>
       <c r="I54" s="8" t="n">
-        <v>463504.839909</v>
+        <v>457024.784116</v>
       </c>
       <c r="J54" s="9" t="n">
-        <v>20.44729160847181</v>
+        <v>20.86688433760234</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>-100</v>
+        <v>-5.612809981607958</v>
       </c>
     </row>
     <row r="55">
@@ -2189,19 +2207,19 @@
         <v>28.02955911955932</v>
       </c>
       <c r="G57" s="8" t="n">
-        <v>298132.644949</v>
+        <v>580805.660258</v>
       </c>
       <c r="H57" s="9" t="n">
-        <v>24.93270139358555</v>
+        <v>26.56609045451166</v>
       </c>
       <c r="I57" s="8" t="n">
-        <v>580805.660258</v>
+        <v>532812.612954</v>
       </c>
       <c r="J57" s="9" t="n">
-        <v>26.56609045451166</v>
+        <v>25.88867656573253</v>
       </c>
       <c r="K57" s="9" t="n">
-        <v>-100</v>
+        <v>-8.263185190495726</v>
       </c>
     </row>
     <row r="58">
@@ -2228,19 +2246,19 @@
         <v>16.21568927701384</v>
       </c>
       <c r="G58" s="8" t="n">
-        <v>209029.61755</v>
+        <v>363948.52916</v>
       </c>
       <c r="H58" s="9" t="n">
-        <v>17.48105457448672</v>
+        <v>16.64703050957889</v>
       </c>
       <c r="I58" s="8" t="n">
-        <v>363948.52916</v>
+        <v>386753.776229</v>
       </c>
       <c r="J58" s="9" t="n">
-        <v>16.64703050957889</v>
+        <v>18.79186637091247</v>
       </c>
       <c r="K58" s="9" t="n">
-        <v>-100</v>
+        <v>6.266063808977318</v>
       </c>
     </row>
     <row r="59">
@@ -2267,19 +2285,19 @@
         <v>6.044665868595473</v>
       </c>
       <c r="G59" s="8" t="n">
-        <v>76619.356101</v>
+        <v>141890.221622</v>
       </c>
       <c r="H59" s="9" t="n">
-        <v>6.407642903251404</v>
+        <v>6.490068400067452</v>
       </c>
       <c r="I59" s="8" t="n">
-        <v>141890.221622</v>
+        <v>112910.94435</v>
       </c>
       <c r="J59" s="9" t="n">
-        <v>6.490068400067452</v>
+        <v>5.486196925411261</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>-100</v>
+        <v>-20.42373106527503</v>
       </c>
     </row>
     <row r="60">
@@ -2306,19 +2324,19 @@
         <v>4.724959352896973</v>
       </c>
       <c r="G60" s="8" t="n">
-        <v>73365.808628</v>
+        <v>130929.322635</v>
       </c>
       <c r="H60" s="9" t="n">
-        <v>6.135550165376151</v>
+        <v>5.988716133937576</v>
       </c>
       <c r="I60" s="8" t="n">
-        <v>130929.322635</v>
+        <v>102594.083414</v>
       </c>
       <c r="J60" s="9" t="n">
-        <v>5.988716133937576</v>
+        <v>4.984913980052752</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>-100</v>
+        <v>-21.64162973636696</v>
       </c>
     </row>
     <row r="61">
@@ -2345,19 +2363,19 @@
         <v>5.355258166262937</v>
       </c>
       <c r="G61" s="8" t="n">
-        <v>63512.888497</v>
+        <v>113053.470497</v>
       </c>
       <c r="H61" s="9" t="n">
-        <v>5.311554807460568</v>
+        <v>5.171073439755443</v>
       </c>
       <c r="I61" s="8" t="n">
-        <v>113053.470497</v>
+        <v>100288.380452</v>
       </c>
       <c r="J61" s="9" t="n">
-        <v>5.171073439755443</v>
+        <v>4.872882851681128</v>
       </c>
       <c r="K61" s="9" t="n">
-        <v>-100</v>
+        <v>-11.29119697863564</v>
       </c>
     </row>
     <row r="62">
@@ -2384,19 +2402,19 @@
         <v>2.67089343153898</v>
       </c>
       <c r="G62" s="8" t="n">
-        <v>35044.148705</v>
+        <v>67048.723057</v>
       </c>
       <c r="H62" s="9" t="n">
-        <v>2.930726675046404</v>
+        <v>3.066813158812064</v>
       </c>
       <c r="I62" s="8" t="n">
-        <v>67048.723057</v>
+        <v>62706.401824</v>
       </c>
       <c r="J62" s="9" t="n">
-        <v>3.066813158812064</v>
+        <v>3.046823059277972</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>-100</v>
+        <v>-6.476366789727628</v>
       </c>
     </row>
     <row r="63">
@@ -2423,19 +2441,19 @@
         <v>2.560676562269208</v>
       </c>
       <c r="G63" s="8" t="n">
-        <v>30259.875698</v>
+        <v>52982.659433</v>
       </c>
       <c r="H63" s="9" t="n">
-        <v>2.530620036978211</v>
+        <v>2.423430450716369</v>
       </c>
       <c r="I63" s="8" t="n">
-        <v>52982.659433</v>
+        <v>49693.100401</v>
       </c>
       <c r="J63" s="9" t="n">
-        <v>2.423430450716369</v>
+        <v>2.414523553970429</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>-100</v>
+        <v>-6.208746535571441</v>
       </c>
     </row>
     <row r="64">
@@ -2462,97 +2480,97 @@
         <v>1.205491106467741</v>
       </c>
       <c r="G64" s="8" t="n">
-        <v>22010.500589</v>
+        <v>38673.617241</v>
       </c>
       <c r="H64" s="9" t="n">
-        <v>1.840728440868168</v>
+        <v>1.768933886372909</v>
       </c>
       <c r="I64" s="8" t="n">
-        <v>38673.617241</v>
+        <v>41577.859318</v>
       </c>
       <c r="J64" s="9" t="n">
-        <v>1.768933886372909</v>
+        <v>2.020214473173818</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>-100</v>
+        <v>7.509620987614918</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>897</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
         </is>
       </c>
       <c r="C65" s="8" t="n">
-        <v>28315.677334</v>
+        <v>25575.244108</v>
       </c>
       <c r="D65" s="9" t="n">
-        <v>1.477213137551475</v>
+        <v>1.334246260359069</v>
       </c>
       <c r="E65" s="8" t="n">
-        <v>39743.660121</v>
+        <v>25175.324852</v>
       </c>
       <c r="F65" s="9" t="n">
-        <v>1.957675985939284</v>
+        <v>1.240075240954954</v>
       </c>
       <c r="G65" s="8" t="n">
-        <v>20346.218015</v>
+        <v>35490.669032</v>
       </c>
       <c r="H65" s="9" t="n">
-        <v>1.701545224420374</v>
+        <v>1.623345618526556</v>
       </c>
       <c r="I65" s="8" t="n">
-        <v>35827.164502</v>
+        <v>34691.46818</v>
       </c>
       <c r="J65" s="9" t="n">
-        <v>1.638736944240535</v>
+        <v>1.685613623752484</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>-100</v>
+        <v>-2.251861894402174</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>871</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
         </is>
       </c>
       <c r="C66" s="8" t="n">
-        <v>25575.244108</v>
+        <v>25857.913771</v>
       </c>
       <c r="D66" s="9" t="n">
-        <v>1.334246260359069</v>
+        <v>1.348992979459073</v>
       </c>
       <c r="E66" s="8" t="n">
-        <v>25175.324852</v>
+        <v>28627.257395</v>
       </c>
       <c r="F66" s="9" t="n">
-        <v>1.240075240954954</v>
+        <v>1.410109038142715</v>
       </c>
       <c r="G66" s="8" t="n">
-        <v>17224.46505</v>
+        <v>25634.093808</v>
       </c>
       <c r="H66" s="9" t="n">
-        <v>1.440474403027434</v>
+        <v>1.172505196523496</v>
       </c>
       <c r="I66" s="8" t="n">
-        <v>35490.669032</v>
+        <v>28562.370303</v>
       </c>
       <c r="J66" s="9" t="n">
-        <v>1.623345618526556</v>
+        <v>1.387808675596968</v>
       </c>
       <c r="K66" s="9" t="n">
-        <v>-100</v>
+        <v>11.4233665404085</v>
       </c>
     </row>
     <row r="67">
@@ -2567,31 +2585,31 @@
         </is>
       </c>
       <c r="C67" s="8" t="n">
-        <v>604326.2064</v>
+        <v>606783.969963</v>
       </c>
       <c r="D67" s="9" t="n">
-        <v>31.52736206627111</v>
+        <v>31.65558222436352</v>
       </c>
       <c r="E67" s="8" t="n">
-        <v>608943.111682</v>
+        <v>620059.514408</v>
       </c>
       <c r="F67" s="9" t="n">
-        <v>29.99505588850129</v>
+        <v>30.54262283629786</v>
       </c>
       <c r="G67" s="8" t="n">
-        <v>350203.946934</v>
+        <v>635810.001114</v>
       </c>
       <c r="H67" s="9" t="n">
-        <v>29.28740137549902</v>
+        <v>29.08199275119759</v>
       </c>
       <c r="I67" s="8" t="n">
-        <v>625616.93042</v>
+        <v>605500.352286</v>
       </c>
       <c r="J67" s="9" t="n">
-        <v>28.61576100348055</v>
+        <v>29.42047992043819</v>
       </c>
       <c r="K67" s="9" t="n">
-        <v>-100</v>
+        <v>-4.767092177678012</v>
       </c>
     </row>
     <row r="68">
